--- a/docs/bug.xlsx
+++ b/docs/bug.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="31">
   <si>
     <t>bug内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,9 +135,6 @@
   </si>
   <si>
     <t>暂缓</t>
-  </si>
-  <si>
-    <t>不修改</t>
   </si>
   <si>
     <t>修改中</t>
@@ -239,7 +236,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="47">
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -283,333 +280,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -906,8 +576,8 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -939,7 +609,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D2" s="5"/>
     </row>
@@ -951,7 +621,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D3" s="5"/>
     </row>
@@ -991,7 +661,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D6" s="5"/>
     </row>
@@ -1003,7 +673,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D7" s="5"/>
     </row>
@@ -1015,7 +685,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D8" s="5"/>
     </row>
@@ -1027,7 +697,7 @@
         <v>29</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D9" s="5"/>
     </row>
@@ -1039,7 +709,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D10" s="5"/>
     </row>
@@ -1051,7 +721,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D11" s="5"/>
     </row>
@@ -1075,7 +745,7 @@
         <v>24</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="5"/>
     </row>
@@ -1087,7 +757,7 @@
         <v>24</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D14" s="5"/>
     </row>
@@ -1099,7 +769,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="5"/>
     </row>
@@ -1111,7 +781,7 @@
         <v>24</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="5"/>
     </row>
@@ -1123,7 +793,7 @@
         <v>24</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="5"/>
     </row>
@@ -1135,7 +805,7 @@
         <v>24</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="5"/>
     </row>
@@ -1147,7 +817,7 @@
         <v>24</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="5"/>
     </row>
@@ -1159,7 +829,7 @@
         <v>29</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" s="5"/>
     </row>
@@ -1171,7 +841,7 @@
         <v>24</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" s="5"/>
     </row>
